--- a/EKF/SOC_OCV_data.xlsx
+++ b/EKF/SOC_OCV_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ggowriremeshme_tudelft_nl/Documents/BSC-2/AE2224/Prognostics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowri\Documents\B03\EKF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B5285534-6030-40B1-A179-12263F18A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5172C0-D272-4587-B948-83894C32EA5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68755A-FE3A-4DBE-92A8-4B68D474C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34356A36-CC59-44D9-90EC-A31975E47180}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34356A36-CC59-44D9-90EC-A31975E47180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SOC</t>
   </si>
@@ -46,18 +46,146 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>., -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.9905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4.2391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.4140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.5688</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4.0621</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5.5056</t>
+    </r>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +228,1099 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5B2-4F36-8E28-D9033017F5E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-4.4855999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4240171311499994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8610467496000016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1325710335999979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0994245255999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4734168063999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5527875000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5307533823999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5221849575999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5863190016000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6536437796499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7455070743999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5B2-4F36-8E28-D9033017F5E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974332384"/>
+        <c:axId val="974349184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="974332384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974349184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974349184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974332384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22641</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339397</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C44CE89-2E6C-682B-5390-B259F88DEB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,15 +1620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6399F603-D2F9-42CF-86B5-68078A8D46E7}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +1638,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -425,8 +1655,12 @@
       <c r="C2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>3-2.99*A2+4.33*A2^2+2.414*A2^3-1.568*A2^4-4.062*A2^5-5.5056*A2^6</f>
+        <v>-4.3816000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.95</v>
       </c>
@@ -436,8 +1670,12 @@
       <c r="C3">
         <v>-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D60" si="0">3-2.99*A3+4.23*A3^2+2.41*A3^3-1.568*A3^4-4.062*A3^5-5.5056*A3^6</f>
+        <v>-2.4240171311499994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.9</v>
       </c>
@@ -447,8 +1685,12 @@
       <c r="C4">
         <v>-10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.8610467496000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -458,8 +1700,12 @@
       <c r="C5">
         <v>-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.1325710335999979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -469,8 +1715,12 @@
       <c r="C6">
         <v>-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.0994245255999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -480,8 +1730,12 @@
       <c r="C7">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.4734168063999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -491,8 +1745,12 @@
       <c r="C8">
         <v>-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.5527875000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -502,8 +1760,12 @@
       <c r="C9">
         <v>-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.5307533823999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.3</v>
       </c>
@@ -513,8 +1775,12 @@
       <c r="C10">
         <v>-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.5221849575999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -524,8 +1790,12 @@
       <c r="C11">
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.5863190016000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -535,8 +1805,12 @@
       <c r="C12">
         <v>-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.6536437796499999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -546,8 +1820,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-4.4855999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.95</v>
       </c>
@@ -557,8 +1835,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-2.4240171311499994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.9</v>
       </c>
@@ -568,8 +1850,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.8610467496000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.8</v>
       </c>
@@ -579,8 +1865,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.1325710335999979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.7</v>
       </c>
@@ -590,8 +1880,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.0994245255999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.6</v>
       </c>
@@ -601,8 +1895,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.4734168063999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -612,8 +1910,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.5527875000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.4</v>
       </c>
@@ -623,8 +1925,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.5307533823999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -634,8 +1940,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.5221849575999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -645,8 +1955,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.5863190016000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.15</v>
       </c>
@@ -656,8 +1970,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.6536437796499999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -667,8 +1985,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.7455070743999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -678,8 +2000,12 @@
       <c r="C25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4.4855999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.95</v>
       </c>
@@ -689,8 +2015,12 @@
       <c r="C26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-2.4240171311499994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.9</v>
       </c>
@@ -700,8 +2030,12 @@
       <c r="C27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.8610467496000016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.8</v>
       </c>
@@ -711,8 +2045,12 @@
       <c r="C28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.1325710335999979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.7</v>
       </c>
@@ -722,8 +2060,12 @@
       <c r="C29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2.0994245255999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.6</v>
       </c>
@@ -733,8 +2075,12 @@
       <c r="C30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.4734168063999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -744,8 +2090,12 @@
       <c r="C31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.5527875000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.4</v>
       </c>
@@ -755,8 +2105,12 @@
       <c r="C32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.5307533823999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.3</v>
       </c>
@@ -766,8 +2120,12 @@
       <c r="C33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.5221849575999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.2</v>
       </c>
@@ -777,8 +2135,12 @@
       <c r="C34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.5863190016000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.15</v>
       </c>
@@ -788,8 +2150,12 @@
       <c r="C35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.6536437796499999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.1</v>
       </c>
@@ -799,8 +2165,12 @@
       <c r="C36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.7455070743999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -810,8 +2180,12 @@
       <c r="C37">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-4.4855999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.95</v>
       </c>
@@ -821,8 +2195,12 @@
       <c r="C38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-2.4240171311499994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -832,8 +2210,12 @@
       <c r="C39">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-0.8610467496000016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.8</v>
       </c>
@@ -843,8 +2225,12 @@
       <c r="C40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1.1325710335999979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.7</v>
       </c>
@@ -854,8 +2240,12 @@
       <c r="C41">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.0994245255999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.6</v>
       </c>
@@ -865,8 +2255,12 @@
       <c r="C42">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2.4734168063999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.5</v>
       </c>
@@ -876,8 +2270,12 @@
       <c r="C43">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.5527875000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.4</v>
       </c>
@@ -887,8 +2285,12 @@
       <c r="C44">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.5307533823999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.3</v>
       </c>
@@ -898,8 +2300,12 @@
       <c r="C45">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2.5221849575999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.2</v>
       </c>
@@ -909,8 +2315,12 @@
       <c r="C46">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2.5863190016000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.15</v>
       </c>
@@ -920,8 +2330,12 @@
       <c r="C47">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>2.6536437796499999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.1</v>
       </c>
@@ -931,8 +2345,12 @@
       <c r="C48">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2.7455070743999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -942,8 +2360,12 @@
       <c r="C49">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-4.4855999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.95</v>
       </c>
@@ -953,8 +2375,12 @@
       <c r="C50">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-2.4240171311499994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.9</v>
       </c>
@@ -964,8 +2390,12 @@
       <c r="C51">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-0.8610467496000016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.8</v>
       </c>
@@ -975,8 +2405,12 @@
       <c r="C52">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.1325710335999979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.7</v>
       </c>
@@ -986,8 +2420,12 @@
       <c r="C53">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2.0994245255999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.6</v>
       </c>
@@ -997,8 +2435,12 @@
       <c r="C54">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2.4734168063999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.5</v>
       </c>
@@ -1008,8 +2450,12 @@
       <c r="C55">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>2.5527875000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.4</v>
       </c>
@@ -1019,8 +2465,12 @@
       <c r="C56">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>2.5307533823999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.3</v>
       </c>
@@ -1030,8 +2480,12 @@
       <c r="C57">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2.5221849575999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.2</v>
       </c>
@@ -1041,8 +2495,12 @@
       <c r="C58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>2.5863190016000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.15</v>
       </c>
@@ -1052,8 +2510,12 @@
       <c r="C59">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>2.6536437796499999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.1</v>
       </c>
@@ -1063,8 +2525,14 @@
       <c r="C60">
         <v>40</v>
       </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>2.7455070743999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>